--- a/public/data/soil/soil_table_senegal.xlsx
+++ b/public/data/soil/soil_table_senegal.xlsx
@@ -93,7 +93,7 @@
     <t xml:space="preserve">source_cropland</t>
   </si>
   <si>
-    <t xml:space="preserve">cropland data from Geosurvey: https://geosurvey.qed.ai/about/</t>
+    <t xml:space="preserve">cropland data from MapSPAM: https://mapspam.info/</t>
   </si>
   <si>
     <t xml:space="preserve">source_ruralpop</t>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2283.4</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -860,10 +860,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>117.6</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>14510.7</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -875,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>8773.5</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>65791.5</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.487</v>
+        <v>23.198</v>
       </c>
       <c r="K6" t="n">
-        <v>159.629</v>
+        <v>139.436</v>
       </c>
     </row>
     <row r="7">
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>348.7</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>72870.2</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -942,10 +942,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.533</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>168.221</v>
+        <v>147.228</v>
       </c>
     </row>
     <row r="8">
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1666.1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>116963.2</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -977,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>3.343</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>215.521</v>
+        <v>190.203</v>
       </c>
     </row>
     <row r="9">
@@ -997,25 +997,25 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>284.6</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>350.3</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>107432.5</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.707</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.101</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>231.845</v>
+        <v>293.148</v>
       </c>
     </row>
     <row r="10">
@@ -1029,28 +1029,28 @@
         <v>38</v>
       </c>
       <c r="D10" t="n">
-        <v>1948.8</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>18805</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>3372.4</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>72416.5</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>7.427</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>33.937</v>
+        <v>26.636</v>
       </c>
       <c r="J10" t="n">
-        <v>12.132</v>
+        <v>6.566</v>
       </c>
       <c r="K10" t="n">
-        <v>143.113</v>
+        <v>184.869</v>
       </c>
     </row>
     <row r="11">
@@ -1070,10 +1070,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1155.9</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>67835.5</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1.254</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>98.03</v>
+        <v>106.08</v>
       </c>
     </row>
     <row r="12">
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>7630.4</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>38.6</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>46254.6</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>15.39</v>
+        <v>17.449</v>
       </c>
       <c r="J12" t="n">
-        <v>0.055</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>86.398</v>
+        <v>81.402</v>
       </c>
     </row>
     <row r="13">
@@ -1137,25 +1137,25 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>152.1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>113175.7</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.545</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>196.82</v>
+        <v>192.555</v>
       </c>
     </row>
     <row r="14">
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>165069.8</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>160.654</v>
+        <v>163.433</v>
       </c>
     </row>
     <row r="15">
@@ -1210,10 +1210,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>340.7</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>113741.4</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1222,10 +1222,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.389</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>97.735</v>
+        <v>105.618</v>
       </c>
     </row>
     <row r="16">
@@ -1242,25 +1242,25 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1127.1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>60547.1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>2.191</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>86.413</v>
+        <v>79.875</v>
       </c>
     </row>
     <row r="17">
@@ -1277,25 +1277,25 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>19983.6</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>21.3</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>71929.3</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>37.942</v>
+        <v>24.735</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>169.647</v>
+        <v>192.049</v>
       </c>
     </row>
     <row r="18">
@@ -1312,25 +1312,25 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>18185.5</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>79.6</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>102419.1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>47.261</v>
+        <v>6.629</v>
       </c>
       <c r="J18" t="n">
-        <v>0.211</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>271.038</v>
+        <v>332.986</v>
       </c>
     </row>
     <row r="19">
@@ -1344,28 +1344,28 @@
         <v>47</v>
       </c>
       <c r="D19" t="n">
-        <v>1136.1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>3061.2</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>6255.4</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>128475</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.748</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.308</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>3.769</v>
+        <v>0.967</v>
       </c>
       <c r="K19" t="n">
-        <v>66.607</v>
+        <v>74.882</v>
       </c>
     </row>
     <row r="20">
@@ -1379,28 +1379,28 @@
         <v>48</v>
       </c>
       <c r="D20" t="n">
-        <v>383.1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>7180.4</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1753</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>37287.1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.195</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>3.28</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.125</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>16.996</v>
+        <v>21.803</v>
       </c>
     </row>
     <row r="21">
@@ -1417,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>254.3</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>2524.2</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>159530.8</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.097</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.374</v>
+        <v>0.303</v>
       </c>
       <c r="K21" t="n">
-        <v>53.153</v>
+        <v>59.958</v>
       </c>
     </row>
     <row r="22">
@@ -1452,25 +1452,25 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>78171.1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>47607.4</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>118.724</v>
+        <v>107.97</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>67.344</v>
+        <v>88.234</v>
       </c>
     </row>
     <row r="23">
@@ -1487,25 +1487,25 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>8496.5</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>127668.5</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>10.434</v>
+        <v>7.522</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>118.62</v>
+        <v>135.334</v>
       </c>
     </row>
     <row r="24">
@@ -1519,28 +1519,28 @@
         <v>52</v>
       </c>
       <c r="D24" t="n">
-        <v>1615.9</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>71047.4</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>49.5</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>98108.1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1.833</v>
+        <v>1.464</v>
       </c>
       <c r="I24" t="n">
-        <v>87.224</v>
+        <v>94.638</v>
       </c>
       <c r="J24" t="n">
-        <v>0.056</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>161.031</v>
+        <v>160.508</v>
       </c>
     </row>
     <row r="25">
@@ -1560,10 +1560,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>42.1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>196770.4</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.049</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>229.148</v>
+        <v>247.262</v>
       </c>
     </row>
     <row r="26">
@@ -1595,10 +1595,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>103.1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>369513</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1607,10 +1607,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.033</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>232.703</v>
+        <v>246.774</v>
       </c>
     </row>
     <row r="27">
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>216351</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1645,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>295.795</v>
+        <v>305.418</v>
       </c>
     </row>
     <row r="28">
@@ -1668,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>193938.3</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1680,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>212.225</v>
+        <v>231.467</v>
       </c>
     </row>
     <row r="29">
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>135294</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>221.981</v>
+        <v>250.919</v>
       </c>
     </row>
     <row r="30">
@@ -1735,10 +1735,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>309.4</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>229685</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1747,10 +1747,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.053</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>48.641</v>
+        <v>50.445</v>
       </c>
     </row>
     <row r="31">
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167448.7</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>175.878</v>
+        <v>193.266</v>
       </c>
     </row>
     <row r="32">
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>338846.4</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1820,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>272.402</v>
+        <v>358.025</v>
       </c>
     </row>
     <row r="33">
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>36237.6</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>54.118</v>
+        <v>75.671</v>
       </c>
     </row>
     <row r="34">
@@ -1872,25 +1872,25 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>31342.2</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>81184.2</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>40.573</v>
+        <v>35.594</v>
       </c>
       <c r="J34" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>100.841</v>
+        <v>112.764</v>
       </c>
     </row>
     <row r="35">
@@ -1904,28 +1904,28 @@
         <v>64</v>
       </c>
       <c r="D35" t="n">
-        <v>792.3</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>60812.4</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>6931.7</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>2.137</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>116.718</v>
+        <v>120.966</v>
       </c>
       <c r="J35" t="n">
-        <v>0.874</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>18.209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1939,28 +1939,28 @@
         <v>62</v>
       </c>
       <c r="D36" t="n">
-        <v>67.5</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>68054.1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>24332.9</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>97.957</v>
+        <v>129.049</v>
       </c>
       <c r="J36" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>39.578</v>
+        <v>39.449</v>
       </c>
     </row>
     <row r="37">
@@ -1980,10 +1980,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>181.8</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>151694.3</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1992,10 +1992,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.093</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>131.752</v>
+        <v>144.415</v>
       </c>
     </row>
     <row r="38">
@@ -2012,25 +2012,25 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>788.9</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>267825.2</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.169</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>103.372</v>
+        <v>119.071</v>
       </c>
     </row>
     <row r="39">
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>177947.8</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>127.932</v>
+        <v>128.394</v>
       </c>
     </row>
     <row r="40">
@@ -2079,28 +2079,28 @@
         <v>65</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>4762.3</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>23.6</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>267402.4</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>3.195</v>
+        <v>1.087</v>
       </c>
       <c r="J40" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>265.278</v>
+        <v>276.694</v>
       </c>
     </row>
     <row r="41">
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>88258.8</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>169.839</v>
+        <v>161.269</v>
       </c>
     </row>
     <row r="42">
@@ -2155,10 +2155,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>77113.4</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>123.537</v>
+        <v>102.941</v>
       </c>
     </row>
     <row r="43">
@@ -2190,10 +2190,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>10086.2</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>155560.3</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2202,10 +2202,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>15.753</v>
+        <v>9.021</v>
       </c>
       <c r="K43" t="n">
-        <v>244.557</v>
+        <v>249.344</v>
       </c>
     </row>
     <row r="44">
@@ -2219,28 +2219,28 @@
         <v>73</v>
       </c>
       <c r="D44" t="n">
-        <v>5910.6</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>79777.2</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1831.6</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>52970.8</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>11.347</v>
+        <v>35.913</v>
       </c>
       <c r="I44" t="n">
-        <v>115.095</v>
+        <v>120.424</v>
       </c>
       <c r="J44" t="n">
-        <v>2.247</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>88.204</v>
+        <v>87.598</v>
       </c>
     </row>
     <row r="45">
@@ -2254,28 +2254,28 @@
         <v>74</v>
       </c>
       <c r="D45" t="n">
-        <v>5163.5</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>11511.7</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>689.3</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2570.9</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>7.339</v>
+        <v>3.704</v>
       </c>
       <c r="I45" t="n">
-        <v>21.245</v>
+        <v>37.928</v>
       </c>
       <c r="J45" t="n">
-        <v>0.122</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>2.848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2289,28 +2289,28 @@
         <v>72</v>
       </c>
       <c r="D46" t="n">
-        <v>2499</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>26894.8</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>638.8</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>4915.9</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>8.266</v>
+        <v>12.514</v>
       </c>
       <c r="I46" t="n">
-        <v>90.836</v>
+        <v>100.895</v>
       </c>
       <c r="J46" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>6.929</v>
+        <v>7.012</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/soil/soil_table_senegal.xlsx
+++ b/public/data/soil/soil_table_senegal.xlsx
@@ -39,25 +39,25 @@
     <t xml:space="preserve">name of zone in each province</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation below 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation below 10% of ECEC</t>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.9</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>7056.3</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>7888.5</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>102230.3</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>91708.4</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>171254.9</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>168770.8</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1032,13 +1032,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>13601.9</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>804</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>112890.5</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>108979.5</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>20313</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>74811.1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1143,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>160852.2</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>139696.1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>160837.5</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>78306.7</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1277,13 +1277,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>23563.7</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>168031</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1312,13 +1312,13 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>10815</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>205998.9</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>440.1</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>464.3</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>3840.4</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>123.3</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1884.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>2885.4</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1452,13 +1452,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>34168.7</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>27203.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1487,13 +1487,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>6693</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>98800.7</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>30647.8</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>78224.5</v>
       </c>
       <c r="H24" t="n">
         <v>1.464</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>161303.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>159705.2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>118004.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1668,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>25635.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>22453.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>27380.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>13802.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5434</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>8985.3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1872,13 +1872,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>22391.6</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>60261.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1907,13 +1907,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>52382.5</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>4748</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1942,13 +1942,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>57665.8</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>13611.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>25388.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2018,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>28746.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>118235.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>101282.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>111187.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2158,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>88619.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2190,10 +2190,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>7336.7</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>155141.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2219,16 +2219,16 @@
         <v>73</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>1754.9</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>25493.1</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>14013.6</v>
       </c>
       <c r="H44" t="n">
         <v>35.913</v>
@@ -2254,10 +2254,10 @@
         <v>74</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>1126</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>2714.2</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>72</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>637</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>12469.2</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H46" t="n">
         <v>12.514</v>
